--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/E/15/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/E/15/seed4/result_data_RandomForest.xlsx
@@ -593,7 +593,7 @@
         <v>-7.01</v>
       </c>
       <c r="E9" t="n">
-        <v>17.43040000000001</v>
+        <v>17.39270000000002</v>
       </c>
     </row>
     <row r="10">
@@ -746,7 +746,7 @@
         <v>-6.27</v>
       </c>
       <c r="E18" t="n">
-        <v>17.71020000000002</v>
+        <v>17.88870000000002</v>
       </c>
     </row>
     <row r="19">
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>16.2641</v>
+        <v>16.1097</v>
       </c>
     </row>
     <row r="21">
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.75359999999999</v>
+        <v>16.71669999999999</v>
       </c>
     </row>
     <row r="28">
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.1933</v>
+        <v>16.1121</v>
       </c>
     </row>
     <row r="36">
@@ -1613,7 +1613,7 @@
         <v>-6.88</v>
       </c>
       <c r="E69" t="n">
-        <v>17.29740000000001</v>
+        <v>17.36270000000002</v>
       </c>
     </row>
     <row r="70">
@@ -1732,7 +1732,7 @@
         <v>-7.88</v>
       </c>
       <c r="E76" t="n">
-        <v>16.16939999999999</v>
+        <v>16.12819999999999</v>
       </c>
     </row>
     <row r="77">
@@ -1766,7 +1766,7 @@
         <v>-6.53</v>
       </c>
       <c r="E78" t="n">
-        <v>16.65120000000002</v>
+        <v>16.59070000000003</v>
       </c>
     </row>
     <row r="79">
@@ -1834,7 +1834,7 @@
         <v>-7.37</v>
       </c>
       <c r="E82" t="n">
-        <v>16.6693</v>
+        <v>16.658</v>
       </c>
     </row>
     <row r="83">
@@ -1851,7 +1851,7 @@
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.44169999999999</v>
+        <v>16.5601</v>
       </c>
     </row>
     <row r="84">
@@ -2021,7 +2021,7 @@
         <v>-6.1</v>
       </c>
       <c r="E93" t="n">
-        <v>18.13690000000002</v>
+        <v>18.12090000000002</v>
       </c>
     </row>
     <row r="94">
